--- a/thesis.xlsx
+++ b/thesis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QR Project\V0\QRScannerService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05989C9-767D-400F-8EBA-EED6599DB872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4468F05D-23FD-4BCD-BA00-E1D98A9D0944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1488" windowWidth="11712" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+  <si>
+    <t>Bockisch, Christoph, Prof. Dr.</t>
+  </si>
+  <si>
+    <t>Papenbrock, Thorsten, Prof. Dr.</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Prof.</t>
+  </si>
+  <si>
+    <t>jd123@students.uni-marburg.de</t>
+  </si>
+  <si>
+    <t>johndoe@students.uni-marburg.de</t>
+  </si>
+  <si>
+    <t>Musterstrasse 12, 35037 Marburg, Germany</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>zugelassen</t>
+  </si>
+  <si>
+    <t>The applicant has submitted a current Transcript of Records (ToR) to me. I am willing to assign the named topic for the Master</t>
+  </si>
+  <si>
+    <t>s thesis on the stated issue date and hereby confirm the above information about fulfillment of the admission requirements.</t>
+  </si>
+  <si>
+    <t>umr-fb12-finalthesis_1.0.1_2025-02-06</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59,11 +108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,80 +392,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:AR6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="105.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="103.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.44140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="1"/>
-      <c r="Q1" s="2"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="3"/>
-      <c r="AM1" s="2"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="J2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AM2" s="2"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>45766.972604166665</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1234567</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>20181</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2">
+        <v>45762</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1">
+        <v>17612345678</v>
+      </c>
+      <c r="O1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="2">
+        <v>32234</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45766.972627314812</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1234567</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>20181</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45762</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>17612345678</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="2">
+        <v>32234</v>
+      </c>
+      <c r="S2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="J4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="K3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="K4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="J6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="K6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="K7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/thesis.xlsx
+++ b/thesis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QR Project\V0\QRScannerService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4468F05D-23FD-4BCD-BA00-E1D98A9D0944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AB8A42-C560-4415-9084-3EB833D5BC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1488" windowWidth="11712" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,42 +25,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
-  <si>
-    <t>Bockisch, Christoph, Prof. Dr.</t>
-  </si>
-  <si>
-    <t>Papenbrock, Thorsten, Prof. Dr.</t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Computer Science</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+  <si>
+    <t>Freisleben, Bernd, Prof. Dr.</t>
+  </si>
+  <si>
+    <t>Tischhauser, Elmar, Prof. Dr.</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Data Science</t>
   </si>
   <si>
     <t>Master</t>
   </si>
   <si>
-    <t>Prof.</t>
-  </si>
-  <si>
-    <t>jd123@students.uni-marburg.de</t>
-  </si>
-  <si>
-    <t>johndoe@students.uni-marburg.de</t>
-  </si>
-  <si>
-    <t>Musterstrasse 12, 35037 Marburg, Germany</t>
+    <t>Prof</t>
+  </si>
+  <si>
+    <t>ds246@students.uni-marburg.de</t>
+  </si>
+  <si>
+    <t>david.schneider@students.uni-marburg.de</t>
+  </si>
+  <si>
+    <t>Musterstrasse 8, 35037 Marburg, Germany</t>
   </si>
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>Berlin, Germany</t>
+    <t>Munich, Germany</t>
   </si>
   <si>
     <t>zugelassen</t>
@@ -395,14 +395,14 @@
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="N10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>45766.972604166665</v>
+        <v>45767.532025462962</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -411,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <v>1234567</v>
+        <v>2345678</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="2">
-        <v>45762</v>
+        <v>45778</v>
       </c>
       <c r="L1" t="s">
         <v>7</v>
@@ -441,7 +441,7 @@
         <v>8</v>
       </c>
       <c r="N1">
-        <v>17612345678</v>
+        <v>15124681012</v>
       </c>
       <c r="O1" t="b">
         <v>1</v>
@@ -453,7 +453,7 @@
         <v>10</v>
       </c>
       <c r="R1" s="2">
-        <v>32234</v>
+        <v>36207</v>
       </c>
       <c r="S1" t="s">
         <v>11</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45766.972627314812</v>
+        <v>45767.532037037039</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1234567</v>
+        <v>2345678</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -503,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="2">
-        <v>45762</v>
+        <v>45778</v>
       </c>
       <c r="L2" t="s">
         <v>7</v>
@@ -512,7 +512,7 @@
         <v>8</v>
       </c>
       <c r="N2">
-        <v>17612345678</v>
+        <v>15124681012</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -524,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="R2" s="2">
-        <v>32234</v>
+        <v>36207</v>
       </c>
       <c r="S2" t="s">
         <v>11</v>
@@ -543,9 +543,75 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="A3" s="1">
+        <v>45767.532048611109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2345678</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>20181</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2">
+        <v>45778</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>15124681012</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="2">
+        <v>36207</v>
+      </c>
+      <c r="S3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>

--- a/thesis.xlsx
+++ b/thesis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QR Project\V0\QRScannerService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AB8A42-C560-4415-9084-3EB833D5BC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5A6121-F7C7-494D-AB25-34D81D827BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1488" windowWidth="11712" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,56 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
-  <si>
-    <t>Freisleben, Bernd, Prof. Dr.</t>
-  </si>
-  <si>
-    <t>Tischhauser, Elmar, Prof. Dr.</t>
-  </si>
-  <si>
-    <t>Schneider</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Data Science</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>Prof</t>
-  </si>
-  <si>
-    <t>ds246@students.uni-marburg.de</t>
-  </si>
-  <si>
-    <t>david.schneider@students.uni-marburg.de</t>
-  </si>
-  <si>
-    <t>Musterstrasse 8, 35037 Marburg, Germany</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>Munich, Germany</t>
-  </si>
-  <si>
-    <t>zugelassen</t>
-  </si>
-  <si>
-    <t>The applicant has submitted a current Transcript of Records (ToR) to me. I am willing to assign the named topic for the Master</t>
-  </si>
-  <si>
-    <t>s thesis on the stated issue date and hereby confirm the above information about fulfillment of the admission requirements.</t>
-  </si>
-  <si>
-    <t>umr-fb12-finalthesis_1.0.1_2025-02-06</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,246 +343,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:AN22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="A1:XFD1048576"/>
+      <selection activeCell="F5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>45767.532025462962</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2345678</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1">
-        <v>20181</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2">
-        <v>45778</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1">
-        <v>15124681012</v>
-      </c>
-      <c r="O1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="2">
-        <v>36207</v>
-      </c>
-      <c r="S1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>45767.532037037039</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2345678</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>20181</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2">
-        <v>45778</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2">
-        <v>15124681012</v>
-      </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="2">
-        <v>36207</v>
-      </c>
-      <c r="S2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45767.532048611109</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2345678</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>20181</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="2">
-        <v>45778</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3">
-        <v>15124681012</v>
-      </c>
-      <c r="O3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="2">
-        <v>36207</v>
-      </c>
-      <c r="S3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AN1" s="2"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="K3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="K4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="K5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="K6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="K7" s="2"/>
       <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="K8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="K9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="K11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="K13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="K14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="K15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="K16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="K17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="K18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="K19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="K20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="K21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="K22" s="2"/>
+      <c r="R22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/thesis.xlsx
+++ b/thesis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QR Project\V0\QRScannerService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5A6121-F7C7-494D-AB25-34D81D827BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C942DA-8C80-4E26-BF17-5F097BFAA1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1488" windowWidth="11712" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+  <si>
+    <t>Tischhauser, Elmar, Prof. Dr.</t>
+  </si>
+  <si>
+    <t>Bauer, Thomas, Prof. Dr.</t>
+  </si>
+  <si>
+    <t>Schwartz</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Wirtschaftsinformatik</t>
+  </si>
+  <si>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>Prof.</t>
+  </si>
+  <si>
+    <t>ss123@students.uni-marburg.de</t>
+  </si>
+  <si>
+    <t>sarahs12@students.uni-marburg.de</t>
+  </si>
+  <si>
+    <t>Musterstrasse 45, 35037 Marburg, Germany</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Hamburg, Germany</t>
+  </si>
+  <si>
+    <t>zugelassen</t>
+  </si>
+  <si>
+    <t>The applicant has submitted a current Transcript of Records (ToR) to me. I am willing to assign the named topic for the Master</t>
+  </si>
+  <si>
+    <t>s thesis on the stated issue date and hereby confirm the above information about fulfillment of the admission requirements.</t>
+  </si>
+  <si>
+    <t>umr-fb12-finalthesis_1.0.1_2025-02-06</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,22 +395,179 @@
   <dimension ref="A1:AN22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:XFD1048576"/>
+      <selection activeCell="N1" sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="105.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="103.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="33.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="K1" s="2"/>
-      <c r="R1" s="2"/>
+      <c r="A1" s="1">
+        <v>45770.707048611112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>7654321</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>20232</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2">
+        <v>45777</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1">
+        <v>17698765432</v>
+      </c>
+      <c r="O1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="2">
+        <v>34074</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>15</v>
+      </c>
       <c r="AG1" s="2"/>
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="K2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="A2" s="1">
+        <v>45770.708993055552</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>7654321</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>20232</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45777</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2">
+        <v>17698765432</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="2">
+        <v>34074</v>
+      </c>
+      <c r="S2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>

--- a/thesis.xlsx
+++ b/thesis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QR Project\V0\QRScannerService\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QR Project\TML\QRScannerService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C942DA-8C80-4E26-BF17-5F097BFAA1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63691F6B-4C23-489F-9762-F3C14BE10592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1488" windowWidth="11712" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="1836" windowWidth="11712" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="26">
   <si>
     <t>Tischhauser, Elmar, Prof. Dr.</t>
   </si>
   <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>zugelassen</t>
+  </si>
+  <si>
+    <t>The applicant has submitted a current Transcript of Records (ToR) to me. I am willing to assign the named topic for the Master</t>
+  </si>
+  <si>
+    <t>s thesis on the stated issue date and hereby confirm the above information about fulfillment of the admission requirements.</t>
+  </si>
+  <si>
+    <t>umr-fb12-finalthesis_1.0.1_2025-02-06</t>
+  </si>
+  <si>
+    <t>Freisleben, Bernd, Prof. Dr.</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Prof</t>
+  </si>
+  <si>
+    <t>ds246@students.uni-marburg.de</t>
+  </si>
+  <si>
+    <t>david.schneider@students.uni-marburg.de</t>
+  </si>
+  <si>
+    <t>Musterstrasse 8, 35037 Marburg, Germany</t>
+  </si>
+  <si>
+    <t>Munich, Germany</t>
+  </si>
+  <si>
     <t>Bauer, Thomas, Prof. Dr.</t>
   </si>
   <si>
@@ -57,22 +102,7 @@
     <t>Musterstrasse 45, 35037 Marburg, Germany</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
     <t>Hamburg, Germany</t>
-  </si>
-  <si>
-    <t>zugelassen</t>
-  </si>
-  <si>
-    <t>The applicant has submitted a current Transcript of Records (ToR) to me. I am willing to assign the named topic for the Master</t>
-  </si>
-  <si>
-    <t>s thesis on the stated issue date and hereby confirm the above information about fulfillment of the admission requirements.</t>
-  </si>
-  <si>
-    <t>umr-fb12-finalthesis_1.0.1_2025-02-06</t>
   </si>
 </sst>
 </file>
@@ -395,7 +425,7 @@
   <dimension ref="A1:AN22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="A1:W1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,116 +457,116 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>45770.707048611112</v>
+        <v>45771.48196759259</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1">
-        <v>7654321</v>
+        <v>2345678</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1">
+        <v>20181</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2">
+        <v>45778</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>15124681012</v>
+      </c>
+      <c r="O1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="2">
+        <v>36207</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="U1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="V1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="W1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1">
-        <v>20232</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2">
-        <v>45777</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1">
-        <v>17698765432</v>
-      </c>
-      <c r="O1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="2">
-        <v>34074</v>
-      </c>
-      <c r="S1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" t="s">
-        <v>15</v>
       </c>
       <c r="AG1" s="2"/>
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45770.708993055552</v>
+        <v>45781.720752314817</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>7654321</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I2">
         <v>20232</v>
       </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2">
         <v>45777</v>
       </c>
       <c r="L2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N2">
         <v>17698765432</v>
@@ -545,99 +575,1023 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
         <v>34074</v>
       </c>
       <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45784.752337962964</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2345678</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>20181</v>
+      </c>
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="T2" t="s">
+      <c r="K3" s="2">
+        <v>45778</v>
+      </c>
+      <c r="L3" t="s">
         <v>12</v>
       </c>
-      <c r="U2" t="s">
+      <c r="M3" t="s">
         <v>13</v>
       </c>
-      <c r="V2" t="s">
+      <c r="N3">
+        <v>15124681012</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
         <v>14</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>36207</v>
+      </c>
+      <c r="S3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="T3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="K4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="A4" s="1">
+        <v>45784.753298611111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2345678</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>20181</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2">
+        <v>45778</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>15124681012</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>36207</v>
+      </c>
+      <c r="S4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="K5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="A5" s="1">
+        <v>45784.753437500003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2345678</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>20181</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2">
+        <v>45778</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <v>15124681012</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>36207</v>
+      </c>
+      <c r="S5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="A6" s="1">
+        <v>45784.753449074073</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2345678</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>20181</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2">
+        <v>45778</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <v>15124681012</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="2">
+        <v>36207</v>
+      </c>
+      <c r="S6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="K7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="A7" s="1">
+        <v>45784.753483796296</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2345678</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>20181</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2">
+        <v>45778</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>15124681012</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>36207</v>
+      </c>
+      <c r="S7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="A8" s="1">
+        <v>45784.756828703707</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2345678</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>20181</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="2">
+        <v>45778</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>15124681012</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <v>36207</v>
+      </c>
+      <c r="S8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="A9" s="1">
+        <v>45784.757581018515</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2345678</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>20181</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="2">
+        <v>45778</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9">
+        <v>15124681012</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>36207</v>
+      </c>
+      <c r="S9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="A10" s="1">
+        <v>45784.757881944446</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2345678</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>20181</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="2">
+        <v>45778</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <v>15124681012</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>36207</v>
+      </c>
+      <c r="S10" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="K11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="A11" s="1">
+        <v>45784.757962962962</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2345678</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>20181</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="2">
+        <v>45778</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11">
+        <v>15124681012</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>36207</v>
+      </c>
+      <c r="S11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" t="s">
+        <v>4</v>
+      </c>
+      <c r="W11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="K12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="A12" s="1">
+        <v>45784.760057870371</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2345678</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>20181</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="2">
+        <v>45778</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12">
+        <v>15124681012</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>36207</v>
+      </c>
+      <c r="S12" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="K13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="A13" s="1">
+        <v>45784.760289351849</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2345678</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>20181</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="2">
+        <v>45778</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>15124681012</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
+        <v>36207</v>
+      </c>
+      <c r="S13" t="s">
+        <v>15</v>
+      </c>
+      <c r="T13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" t="s">
+        <v>4</v>
+      </c>
+      <c r="W13" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="K14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="A14" s="1">
+        <v>45784.760358796295</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>2345678</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>20181</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="2">
+        <v>45778</v>
+      </c>
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <v>15124681012</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2">
+        <v>36207</v>
+      </c>
+      <c r="S14" t="s">
+        <v>15</v>
+      </c>
+      <c r="T14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="K15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="A15" s="1">
+        <v>45784.761562500003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2345678</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>20181</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="2">
+        <v>45778</v>
+      </c>
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>15124681012</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2">
+        <v>36207</v>
+      </c>
+      <c r="S15" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="K16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="A16" s="1">
+        <v>45785.370949074073</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2345678</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>20181</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="2">
+        <v>45778</v>
+      </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16">
+        <v>15124681012</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2">
+        <v>36207</v>
+      </c>
+      <c r="S16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16" t="s">
+        <v>4</v>
+      </c>
+      <c r="W16" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
